--- a/Results/Calculation/dp-partial-glove.xlsx
+++ b/Results/Calculation/dp-partial-glove.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="D2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="G2">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="H2">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I2">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D4">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="G4">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="H4">
         <v>0.72</v>
       </c>
       <c r="I4">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D5">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F5">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="G5">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="H5">
         <v>0.5</v>
       </c>
       <c r="I5">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
